--- a/trend_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
+++ b/trend_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.689654641462323</v>
+        <v>0.310345358537677</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.946477911375052</v>
+        <v>0.053522088624948</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Very unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.0541226428599317</v>
+        <v>0.945877357140068</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2389,7 +2389,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.398415113401367</v>
+        <v>0.601584886598633</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.537564794341894</v>
+        <v>0.478337165698518</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0198019801980198</v>
+        <v>0.0266666666666667</v>
       </c>
       <c r="H28" t="n">
-        <v>0.564356435643564</v>
+        <v>0.593333333333333</v>
       </c>
       <c r="I28" t="n">
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>0.545</v>
+        <v>0.595</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0056312916701381</v>
+        <v>-0.0147103122835917</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0106029225725286</v>
+        <v>0.0166674723853417</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3007,46 +3007,46 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.161747054605638</v>
+        <v>0.443630112547111</v>
       </c>
       <c r="G29" t="n">
-        <v>0.139737991266376</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.152838427947598</v>
+        <v>0.8511904761904761</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.01</v>
+        <v>10.25</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-0.002851288056206</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-0.0300201883889242</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0001619321337455</v>
+        <v>0.0255235016539342</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>-0.0278174444507905</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3098,46 +3098,46 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0005239172999909</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.137142857142857</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0.827965041127106</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0.0350877192982456</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.6052631578947369</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
       <c r="J30" t="n">
-        <v>101</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.647502014504432</v>
+        <v>0.0003016102394715</v>
       </c>
       <c r="L30" t="n">
-        <v>-2.38876262394323</v>
+        <v>0.000110767926805</v>
       </c>
       <c r="M30" t="n">
-        <v>0.468274976335164</v>
+        <v>0.0004631234150464</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.641091103469735</v>
+        <v>3.35122488301679</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3189,43 +3189,43 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9926948030317611</v>
+        <v>0.553809174572381</v>
       </c>
       <c r="G31" t="n">
-        <v>0.742268041237113</v>
+        <v>0.0344827586206897</v>
       </c>
       <c r="H31" t="n">
-        <v>0.304123711340206</v>
+        <v>0.660919540229885</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>0.005</v>
+        <v>100</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-1.96946763865675</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>2.00165257624354</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.0267735747234548</v>
+        <v>0.998818062703827</v>
       </c>
       <c r="G32" t="n">
-        <v>0.147619047619048</v>
+        <v>0.745341614906832</v>
       </c>
       <c r="H32" t="n">
-        <v>0.661904761904762</v>
+        <v>0.316770186335404</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1563</v>
+        <v>0.005</v>
       </c>
       <c r="K32" t="n">
-        <v>0.000871790045833</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0025085851648351</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0.55776714384713</v>
+        <v>0</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3386,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.0695653558722009</v>
+        <v>0.101423489476747</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0432692307692308</v>
+        <v>0.437908496732026</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7067307692307691</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="I33" t="n">
         <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1675</v>
+        <v>0.0025</v>
       </c>
       <c r="K33" t="n">
-        <v>0.001003434065934</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.0002001985352793</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0030822287354718</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0.599065113990487</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3462,11 +3462,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
         <v>1</v>
@@ -3477,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0449624501318275</v>
+        <v>0.0338479392722568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.153846153846154</v>
       </c>
       <c r="H34" t="n">
-        <v>0.912663755458515</v>
+        <v>0.762820512820513</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>8.92</v>
+        <v>0.1563</v>
       </c>
       <c r="K34" t="n">
-        <v>0.102380816356299</v>
+        <v>0.0014670267042987</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0043479730069392</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.231666779746728</v>
+        <v>0.0049479967064515</v>
       </c>
       <c r="N34" t="n">
-        <v>1.14776699951008</v>
+        <v>0.93859673979446</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,11 +3553,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
         <v>0</v>
@@ -3568,31 +3568,31 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.110335680959923</v>
+        <v>0.903516693109302</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0.607142857142857</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.36</v>
+        <v>7.69</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.028714231065983</v>
+        <v>0.010010335059677</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.09399067110160771</v>
+        <v>-0.0026462192508303</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0006836311891047</v>
+        <v>0.0225538391417028</v>
       </c>
       <c r="N35" t="n">
-        <v>-7.97617529610638</v>
+        <v>0.13017340779814</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very likely increasing</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3640,46 +3640,46 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5</v>
+        <v>0.07985967592901121</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.0514285714285714</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0.708571428571429</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36" t="n">
-        <v>97.5</v>
+        <v>0.168</v>
       </c>
       <c r="K36" t="n">
-        <v>0.0466105839743173</v>
+        <v>0.001003434065934</v>
       </c>
       <c r="L36" t="n">
-        <v>-7.13733558753208</v>
+        <v>-0.0002508585164835</v>
       </c>
       <c r="M36" t="n">
-        <v>3.2559317259615</v>
+        <v>0.0036487264722581</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0478057271531459</v>
+        <v>0.5972821821036109</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3717,7 +3717,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr"/>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3727,14 +3731,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -3742,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.110335680959923</v>
+        <v>0.382994787537884</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0.594285714285714</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.22</v>
+        <v>0.38</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.261209244222997</v>
+        <v>0.0008449549077531</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.622726525651455</v>
+        <v>-0.0033369367762684</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0272578897753739</v>
+        <v>0.0057223786257562</v>
       </c>
       <c r="N37" t="n">
-        <v>-6.18979251713264</v>
+        <v>0.222356554671893</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3775,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3804,7 +3808,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W37" t="inlineStr"/>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3814,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3829,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.036819135060151</v>
+        <v>0.0393683347084755</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0.468571428571429</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.366</v>
+        <v>0.032</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.0145122934697089</v>
+        <v>0.0005726054278402</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.0256545900835692</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0037654842207234</v>
+        <v>0.0010051077386867</v>
       </c>
       <c r="N38" t="n">
-        <v>-3.96510750538494</v>
+        <v>1.78939196200082</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3891,7 +3899,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3901,14 +3913,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3916,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.088983712984032</v>
+        <v>0.0031178676205025</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9</v>
+        <v>0.971428571428571</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>98</v>
+        <v>8.69</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.761995827538248</v>
+        <v>0.28211512142055</v>
       </c>
       <c r="L39" t="n">
-        <v>-2.2242333987566</v>
+        <v>0.121455148711732</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08634769849819469</v>
+        <v>0.5775749618710539</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.77754676279413</v>
+        <v>3.24643407848735</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3949,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3978,7 +3990,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3988,46 +4004,46 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.053702318165127</v>
+        <v>0.537564794341894</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.0198019801980198</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0.564356435643564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>4.16</v>
+        <v>0.545</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.06391875</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.235686682606844</v>
+        <v>-0.0056312916701381</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0050197306467615</v>
+        <v>0.0106029225725286</v>
       </c>
       <c r="N40" t="n">
-        <v>-1.53650841346154</v>
+        <v>0</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4036,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4065,7 +4081,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -4075,7 +4095,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4086,35 +4106,35 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.289288457492533</v>
+        <v>0.161747054605638</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.139737991266376</v>
       </c>
       <c r="H41" t="n">
-        <v>0.7</v>
+        <v>0.152838427947598</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>98</v>
+        <v>0.01</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.120919269688932</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.469594708001666</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.149771209436175</v>
+        <v>0.0001619321337455</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.123387009886665</v>
+        <v>0</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4152,7 +4172,1162 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr"/>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>E. coli</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20</v>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.827965041127106</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.0350877192982456</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.6052631578947369</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
+        <v>101</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.647502014504432</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-2.38876262394323</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.468274976335164</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.641091103469735</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Ammoniacal Nitrogen (NH4)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope based on two censored values</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9926948030317611</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.742268041237113</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.304123711340206</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20</v>
+      </c>
+      <c r="D44" t="b">
+        <v>1</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0267735747234548</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.147619047619048</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.661904761904762</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.1563</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.000871790045833</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.0025085851648351</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.55776714384713</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="b">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0695653558722009</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.0432692307692308</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.7067307692307691</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.1675</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.001003434065934</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.0002001985352793</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.0030822287354718</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.599065113990487</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20</v>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0449624501318275</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.912663755458515</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.102380816356299</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.0043479730069392</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.231666779746728</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1.14776699951008</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>5</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.028714231065983</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.09399067110160771</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.0006836311891047</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-7.97617529610638</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0466105839743173</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-7.13733558753208</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3.2559317259615</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.0478057271531459</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>5</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0.110335680959923</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.261209244222997</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.622726525651455</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.0272578897753739</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-6.18979251713264</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>10</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>0.036819135060151</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.366</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.0145122934697089</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.0256545900835692</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.0037654842207234</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-3.96510750538494</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Extremely unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>10</v>
+      </c>
+      <c r="D51" t="b">
+        <v>0</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0.088983712984032</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>98</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-0.761995827538248</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-2.2242333987566</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.08634769849819469</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.77754676279413</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>10</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0.053702318165127</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.06391875</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.235686682606844</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.0050197306467615</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-1.53650841346154</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Very unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>15</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0.292405952161355</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>98</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-0.197860238353196</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-0.767982714590642</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.165447998768954</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.201898202401221</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Whanganui at Pipiriki</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>20</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0.289288457492533</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>98</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.120919269688932</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.469594708001666</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.149771209436175</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-0.123387009886665</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>1775744</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5627903</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Whanganui District</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Whanganui</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Pipiriki</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Whai_5a</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
+++ b/trend_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.147045468819869</v>
+        <v>0.00041986122068</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0208333333333333</v>
+        <v>0.0227272727272727</v>
       </c>
       <c r="H2" t="n">
-        <v>0.833333333333333</v>
+        <v>0.818181818181818</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0500713862893224</v>
+        <v>-0.232689091132702</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.166970225275194</v>
+        <v>-0.478667621930116</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0252335224066537</v>
+        <v>-0.0788541650758188</v>
       </c>
       <c r="N2" t="n">
-        <v>-11.1269747309605</v>
+        <v>-58.1722727831755</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,31 +664,31 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.310345358537677</v>
+        <v>0.859011248221425</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.962264150943396</v>
+        <v>0.981132075471698</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10.32</v>
+        <v>10.18</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0401373626373636</v>
+        <v>0.0374487354750514</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.141570842617083</v>
+        <v>-0.0201722808353864</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0411832030101908</v>
+        <v>0.0660583523519022</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.388927932532593</v>
+        <v>0.367865770874768</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -751,35 +751,35 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.608969872578065</v>
+        <v>0.178086413912429</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.375</v>
+        <v>0.357142857142857</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0095</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0003162337662337</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0011588313217107</v>
+        <v>-0.0002610559674792</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0010820207196737</v>
+        <v>0.0011148416271503</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.51370851370851</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.678781417273263</v>
+        <v>0.242421190820533</v>
       </c>
       <c r="G5" t="n">
         <v>0.0357142857142857</v>
@@ -858,19 +858,19 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="K5" t="n">
-        <v>-2.34134615384615</v>
+        <v>5.95717376002198</v>
       </c>
       <c r="L5" t="n">
-        <v>-15.8890803695828</v>
+        <v>-3.65841432951714</v>
       </c>
       <c r="M5" t="n">
-        <v>14.4531224288454</v>
+        <v>33.3861527737115</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.36499611499612</v>
+        <v>6.69345366294604</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,16 +937,16 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6930786109371661</v>
+        <v>0.961998123099152</v>
       </c>
       <c r="G6" t="n">
-        <v>0.826086956521739</v>
+        <v>0.862745098039216</v>
       </c>
       <c r="H6" t="n">
-        <v>0.239130434782609</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J6" t="n">
         <v>0.005</v>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1028,25 +1028,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.813345001243818</v>
+        <v>0.978445793793925</v>
       </c>
       <c r="G7" t="n">
-        <v>0.392857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="n">
-        <v>0.142857142857143</v>
+        <v>0.125</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.003</v>
+        <v>0.0015</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>-0.0003147384425021</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1115,35 +1115,35 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.712006088784819</v>
+        <v>0.0102542401007803</v>
       </c>
       <c r="G8" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="H8" t="n">
-        <v>0.803571428571429</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1715</v>
+        <v>0.191</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.001003434065934</v>
+        <v>0.015553228021978</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0204659530032914</v>
+        <v>0.0009578619116431</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0065456169988072</v>
+        <v>0.0314175798828512</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.585092749815782</v>
+        <v>8.14305132040734</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.053522088624948</v>
+        <v>0.0028655610782579</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.72</v>
+        <v>7.69</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0406585844403107</v>
+        <v>-0.072204553425298</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0915793236383162</v>
+        <v>-0.11365749334727</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-0.0334899264858327</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.526665601558429</v>
+        <v>-0.938940876791912</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Very unlikely increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1293,35 +1293,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.562240476291417</v>
+        <v>0.0063656821349617</v>
       </c>
       <c r="G10" t="n">
         <v>0.0178571428571429</v>
       </c>
       <c r="H10" t="n">
-        <v>0.821428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1825</v>
+        <v>0.1965</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0022221601848286</v>
+        <v>0.0163361622453979</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.021248765806178</v>
+        <v>0.003278842296406</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0104523258300337</v>
+        <v>0.0324250169165864</v>
       </c>
       <c r="N10" t="n">
-        <v>-1.21762201908419</v>
+        <v>8.313568572721589</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.267938882261268</v>
+        <v>0.155022061938262</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0178571428571429</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.696428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>0.395</v>
       </c>
       <c r="K11" t="n">
-        <v>0.826728695832469</v>
+        <v>0.0132939035486806</v>
       </c>
       <c r="L11" t="n">
-        <v>-2.37548375772725</v>
+        <v>-0.0049948177428616</v>
       </c>
       <c r="M11" t="n">
-        <v>4.78457457860535</v>
+        <v>0.0384765872507798</v>
       </c>
       <c r="N11" t="n">
-        <v>4.13364347916235</v>
+        <v>3.36554520219762</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1464,14 +1464,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1479,31 +1479,31 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.931049199258932</v>
+        <v>0.32800621281409</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.660714285714286</v>
+        <v>0.785714285714286</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.39</v>
+        <v>0.0385</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0132939035486806</v>
+        <v>0.0010084939822943</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.0416244423521057</v>
+        <v>-0.0028988095238095</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.0052178571428571</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.40869321761042</v>
+        <v>2.61946488907627</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1555,46 +1555,46 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.5</v>
+        <v>0.157937239915245</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.785714285714286</v>
+        <v>0.982142857142857</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.039</v>
+        <v>11.65</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>0.890547733516484</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0034891890385019</v>
+        <v>-0.762726762443512</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0040346078126689</v>
+        <v>3.21098901098901</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>7.64418655378956</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1646,11 +1646,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5</v>
+        <v>0.013713124396395</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.0206185567010309</v>
       </c>
       <c r="H14" t="n">
-        <v>0.982142857142857</v>
+        <v>0.752577319587629</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>13.6</v>
+        <v>0.46</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.0941710635566704</v>
+        <v>-0.0399835796387521</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.01891986365483</v>
+        <v>-0.08196547142690309</v>
       </c>
       <c r="M14" t="n">
-        <v>2.36803352251407</v>
+        <v>-0.0060447028010632</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.69243429085787</v>
+        <v>-8.692082530163489</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.591486595529606</v>
+        <v>0.970920551120783</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0202020202020202</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.717171717171717</v>
+        <v>0.900900900900901</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.59</v>
+        <v>10.18</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0027085871577972</v>
+        <v>0.0328796477495108</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.0199895341428227</v>
+        <v>0.0055939142030133</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0267801918106046</v>
+        <v>0.0596862235647112</v>
       </c>
       <c r="N15" t="n">
-        <v>0.459082569118183</v>
+        <v>0.322982787323289</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely increasing</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1828,14 +1828,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>10</v>
       </c>
       <c r="D16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.945877357140068</v>
+        <v>0.994441344425968</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.900900900900901</v>
+        <v>0.25</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>10.32</v>
+        <v>0.011</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0347857142857144</v>
+        <v>-0.0003896420273499</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.0016752342273885</v>
+        <v>-0.0006835890113408</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0680178546231304</v>
+        <v>-0.0001036807921918</v>
       </c>
       <c r="N16" t="n">
-        <v>0.337070874861574</v>
+        <v>-3.54220024863612</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.852242189274647</v>
+        <v>0.246348159485544</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09482758620689651</v>
+        <v>0.0260869565217391</v>
       </c>
       <c r="H17" t="n">
-        <v>0.232758620689655</v>
+        <v>0.634782608695652</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0.011</v>
+        <v>85</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0001453487212059</v>
+        <v>1.60549450549451</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.0004998007361438</v>
+        <v>-2.45828067643694</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>10.0343406593407</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.32135201096304</v>
+        <v>1.88881706528765</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2010,43 +2010,43 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.565429542922024</v>
+        <v>0.7733625104176119</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0260869565217391</v>
+        <v>0.875</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6434782608695651</v>
+        <v>0.201923076923077</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>100</v>
+        <v>0.005</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>-4.01373626373626</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>4.73007874158546</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2112,35 +2112,35 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.462004164937265</v>
+        <v>0.999631554758698</v>
       </c>
       <c r="G19" t="n">
-        <v>0.865384615384615</v>
+        <v>0.370689655172414</v>
       </c>
       <c r="H19" t="n">
-        <v>0.211538461538462</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="I19" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0001264717431195</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-0.0003162344328644</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-4.2157247706532</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2192,46 +2192,46 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>10</v>
       </c>
       <c r="D20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.994732418142625</v>
+        <v>0.0057128095934908</v>
       </c>
       <c r="G20" t="n">
-        <v>0.301724137931034</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="H20" t="n">
-        <v>0.146551724137931</v>
+        <v>0.801724137931034</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0.003</v>
+        <v>0.1715</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0001135061321584</v>
+        <v>0.0053921292803584</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0002896885001527</v>
+        <v>5.46617457753849e-05</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.0117242664604217</v>
       </c>
       <c r="N20" t="n">
-        <v>-3.78353773861406</v>
+        <v>3.14409870574836</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2283,46 +2283,46 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>10</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0963190114815982</v>
+        <v>0.215445607231325</v>
       </c>
       <c r="G21" t="n">
-        <v>0.172413793103448</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7844827586206899</v>
+        <v>0.612612612612613</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1563</v>
+        <v>7.68</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001399425287356</v>
+        <v>-0.0071282201405152</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-0.021275312316039</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0065113387588491</v>
+        <v>0.0068461524459224</v>
       </c>
       <c r="N21" t="n">
-        <v>0.08953456732926</v>
+        <v>-0.0928153664129583</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2360,11 +2360,7 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2374,14 +2370,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2385,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.601584886598633</v>
+        <v>0.0022806856944202</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.0517241379310345</v>
       </c>
       <c r="H22" t="n">
-        <v>0.630630630630631</v>
+        <v>0.7844827586206899</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>7.69</v>
+        <v>0.1915</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0020705782312926</v>
+        <v>0.0064335746610121</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0119693167814577</v>
+        <v>0.0012411265992345</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0163058035714286</v>
+        <v>0.0133229151374175</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0269255946852101</v>
+        <v>3.35956901358335</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2418,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2451,7 +2447,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -2476,31 +2476,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.0529834014368746</v>
+        <v>0.157857255944052</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0517241379310345</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.732758620689655</v>
+        <v>0.629310344827586</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.169</v>
+        <v>0.39</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0013755748971693</v>
+        <v>0.0059156136427173</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-0.0026500117001964</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008045939078653599</v>
+        <v>0.0161898171373197</v>
       </c>
       <c r="N23" t="n">
-        <v>0.813949643295466</v>
+        <v>1.51682401095317</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2552,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2567,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.0934191157551315</v>
+        <v>0.0287009701618789</v>
       </c>
       <c r="G24" t="n">
-        <v>0.008695652173913</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.530434782608696</v>
+        <v>0.543103448275862</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>15</v>
+        <v>0.0325</v>
       </c>
       <c r="K24" t="n">
-        <v>0.6646951774340309</v>
+        <v>0.0012134551495016</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.0452415636246094</v>
+        <v>2.64425772354318e-05</v>
       </c>
       <c r="M24" t="n">
-        <v>1.53140701872981</v>
+        <v>0.0025257167189016</v>
       </c>
       <c r="N24" t="n">
-        <v>4.43130118289354</v>
+        <v>3.7337081523128</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2600,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.382828571327503</v>
+        <v>0.0186784715937869</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.681034482758621</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3885</v>
+        <v>8.58</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0011268562050335</v>
+        <v>0.639689217032967</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.0049777547599643</v>
+        <v>0.14699556522761</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0100538491508093</v>
+        <v>1.48248699306336</v>
       </c>
       <c r="N25" t="n">
-        <v>0.290053077228722</v>
+        <v>7.45558528010451</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2722,7 +2722,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2734,11 +2734,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
@@ -2749,31 +2749,31 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.018470203038908</v>
+        <v>0.217123356236768</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5344827586206899</v>
+        <v>0.595890410958904</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" t="n">
-        <v>0.033</v>
+        <v>0.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0013287860865249</v>
+        <v>-0.0057686203245767</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004990366846215</v>
+        <v>-0.0229231533793219</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0028330163783172</v>
+        <v>0.0075457687090065</v>
       </c>
       <c r="N26" t="n">
-        <v>4.02662450462103</v>
+        <v>-1.15372406491534</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -2825,11 +2825,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.0553362958478194</v>
+        <v>0.850841053647183</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.982758620689655</v>
+        <v>0.8511904761904761</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>9.44</v>
+        <v>10.32</v>
       </c>
       <c r="K27" t="n">
-        <v>0.389785151584806</v>
+        <v>0.0171545988258316</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0142361427812982</v>
+        <v>-0.0078396030537046</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03374279617274</v>
+        <v>0.0378017409327299</v>
       </c>
       <c r="N27" t="n">
-        <v>4.12907999560176</v>
+        <v>0.166226732808446</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2916,46 +2916,46 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>15</v>
       </c>
       <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0215182455286319</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.108571428571429</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>0.478337165698518</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0.0266666666666667</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.593333333333333</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3</v>
-      </c>
       <c r="J28" t="n">
-        <v>0.595</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.000138012469299</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0147103122835917</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0166674723853417</v>
+        <v>0.0003060326770004</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1.53347188110083</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q28" t="n">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -3018,35 +3018,35 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.443630112547111</v>
+        <v>0.488014490178841</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0229885057471264</v>
       </c>
       <c r="H29" t="n">
-        <v>0.8511904761904761</v>
+        <v>0.6781609195402299</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="n">
-        <v>10.25</v>
+        <v>100</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.002851288056206</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0300201883889242</v>
+        <v>-2.25812109214756</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0255235016539342</v>
+        <v>2.37494415809512</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.0278174444507905</v>
+        <v>0</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3098,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -3109,35 +3109,35 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.0005239172999909</v>
+        <v>0.999921186902075</v>
       </c>
       <c r="G30" t="n">
-        <v>0.137142857142857</v>
+        <v>0.7654320987654319</v>
       </c>
       <c r="H30" t="n">
-        <v>0.16</v>
+        <v>0.290123456790123</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.005</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0003016102394715</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000110767926805</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0004631234150464</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>3.35122488301679</v>
+        <v>0</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3189,14 +3189,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -3204,28 +3204,28 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.553809174572381</v>
+        <v>0.462730288106485</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0344827586206897</v>
+        <v>0.460606060606061</v>
       </c>
       <c r="H31" t="n">
-        <v>0.660919540229885</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>100</v>
+        <v>0.0025</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-1.96946763865675</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>2.00165257624354</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,46 +3280,46 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.998818062703827</v>
+        <v>0.0015520572881166</v>
       </c>
       <c r="G32" t="n">
-        <v>0.745341614906832</v>
+        <v>0.145454545454545</v>
       </c>
       <c r="H32" t="n">
-        <v>0.316770186335404</v>
+        <v>0.775757575757576</v>
       </c>
       <c r="I32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>0.005</v>
+        <v>0.159</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.0038520354355621</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.0004417834538507</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.0068247020559455</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>2.42266379595102</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.101423489476747</v>
+        <v>0.5982527376157361</v>
       </c>
       <c r="G33" t="n">
-        <v>0.437908496732026</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.111111111111111</v>
+        <v>0.5976331360946751</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0025</v>
+        <v>7.69</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.0016643924770412</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-0.0100308311111452</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.0140940892617591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>0.0216435952801203</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not increasing</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3448,11 +3448,7 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3462,7 +3458,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -3477,31 +3473,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.0338479392722568</v>
+        <v>0.0125680431661993</v>
       </c>
       <c r="G34" t="n">
-        <v>0.153846153846154</v>
+        <v>0.04</v>
       </c>
       <c r="H34" t="n">
-        <v>0.762820512820513</v>
+        <v>0.8114285714285711</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1563</v>
+        <v>0.175</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0014670267042987</v>
+        <v>0.0026503186458807</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>0.0001908115125541</v>
       </c>
       <c r="M34" t="n">
-        <v>0.0049479967064515</v>
+        <v>0.0052206751388246</v>
       </c>
       <c r="N34" t="n">
-        <v>0.93859673979446</v>
+        <v>1.51446779764616</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3541,7 +3537,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3553,46 +3549,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on tied non-censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.903516693109302</v>
+        <v>0.494064121263714</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.607142857142857</v>
+        <v>0.617142857142857</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>7.69</v>
+        <v>0.39</v>
       </c>
       <c r="K35" t="n">
-        <v>0.010010335059677</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0026462192508303</v>
+        <v>-0.004260357389622</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0225538391417028</v>
+        <v>0.004869556751488</v>
       </c>
       <c r="N35" t="n">
-        <v>0.13017340779814</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3597,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Very likely increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3630,7 +3626,11 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3651,35 +3651,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.07985967592901121</v>
+        <v>0.170286778805001</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0514285714285714</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.708571428571429</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.168</v>
+        <v>0.033</v>
       </c>
       <c r="K36" t="n">
-        <v>0.001003434065934</v>
+        <v>0.0003167029681118</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.0002508585164835</v>
+        <v>-0.0002004152377401</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0036487264722581</v>
+        <v>0.0009953560348027999</v>
       </c>
       <c r="N36" t="n">
-        <v>0.5972821821036109</v>
+        <v>0.959705963975154</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3746,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.382994787537884</v>
+        <v>0.0315920880213748</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.594285714285714</v>
+        <v>0.977142857142857</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.38</v>
+        <v>8.69</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0008449549077531</v>
+        <v>0.227665868357833</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0033369367762684</v>
+        <v>0.0367545434708182</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0057223786257562</v>
+        <v>0.519184224272216</v>
       </c>
       <c r="N37" t="n">
-        <v>0.222356554671893</v>
+        <v>2.61986039537207</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3779,7 +3779,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q37" t="n">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -3822,11 +3822,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D38" t="b">
         <v>1</v>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.0393683347084755</v>
+        <v>0.07925771949947299</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="H38" t="n">
-        <v>0.468571428571429</v>
+        <v>0.575757575757576</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J38" t="n">
-        <v>0.032</v>
+        <v>0.5</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0005726054278402</v>
+        <v>-0.0053871681415929</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-0.0150030669797785</v>
       </c>
       <c r="M38" t="n">
-        <v>0.0010051077386867</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.78939196200082</v>
+        <v>-1.07743362831858</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3901,7 +3901,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3913,46 +3913,46 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.317454356215475</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.126086956521739</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.152173913043478</v>
+      </c>
+      <c r="I39" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0031178676205025</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.971428571428571</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>8.69</v>
+        <v>0.01</v>
       </c>
       <c r="K39" t="n">
-        <v>0.28211512142055</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.121455148711732</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0.5775749618710539</v>
+        <v>0.000111254949741</v>
       </c>
       <c r="N39" t="n">
-        <v>3.24643407848735</v>
+        <v>0</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -4015,35 +4015,35 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.537564794341894</v>
+        <v>0.684332286225971</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0198019801980198</v>
+        <v>0.0349344978165939</v>
       </c>
       <c r="H40" t="n">
-        <v>0.564356435643564</v>
+        <v>0.611353711790393</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>0.545</v>
+        <v>100</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-0.260809976741358</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0056312916701381</v>
+        <v>-1.98827653368381</v>
       </c>
       <c r="M40" t="n">
-        <v>0.0106029225725286</v>
+        <v>0.998681049460556</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-0.260809976741358</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q40" t="n">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -4095,7 +4095,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -4106,23 +4106,23 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.161747054605638</v>
+        <v>0.9988434364045931</v>
       </c>
       <c r="G41" t="n">
-        <v>0.139737991266376</v>
+        <v>0.757281553398058</v>
       </c>
       <c r="H41" t="n">
-        <v>0.152838427947598</v>
+        <v>0.286407766990291</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J41" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.0001619321337455</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -4201,31 +4201,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.827965041127106</v>
+        <v>0.0016044189799531</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0350877192982456</v>
+        <v>0.132701421800948</v>
       </c>
       <c r="H42" t="n">
-        <v>0.6052631578947369</v>
+        <v>0.701421800947867</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
-        <v>101</v>
+        <v>0.16</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.647502014504432</v>
+        <v>0.0022272393454968</v>
       </c>
       <c r="L42" t="n">
-        <v>-2.38876262394323</v>
+        <v>0.0002454056768692</v>
       </c>
       <c r="M42" t="n">
-        <v>0.468274976335164</v>
+        <v>0.0044379324372358</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.641091103469735</v>
+        <v>1.39202459093555</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q42" t="n">
@@ -4265,7 +4265,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -4277,46 +4277,46 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>20</v>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9926948030317611</v>
+        <v>0.0051848724728674</v>
       </c>
       <c r="G43" t="n">
-        <v>0.742268041237113</v>
+        <v>0.0409090909090909</v>
       </c>
       <c r="H43" t="n">
-        <v>0.304123711340206</v>
+        <v>0.772727272727273</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J43" t="n">
-        <v>0.005</v>
+        <v>0.1725</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>0.0023415160363695</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>0.0005526282693781</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.0043274857028571</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1.35740060079392</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4325,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4356,7 +4356,7 @@
       </c>
       <c r="W43" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -4379,35 +4379,35 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.0267735747234548</v>
+        <v>0.0266532060597397</v>
       </c>
       <c r="G44" t="n">
-        <v>0.147619047619048</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.661904761904762</v>
+        <v>0.9304347826086961</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1563</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K44" t="n">
-        <v>0.000871790045833</v>
+        <v>0.132126610030145</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>0.0256973581359382</v>
       </c>
       <c r="M44" t="n">
-        <v>0.0025085851648351</v>
+        <v>0.276278916383124</v>
       </c>
       <c r="N44" t="n">
-        <v>0.55776714384713</v>
+        <v>1.5292431716452</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="W44" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4459,46 +4459,46 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>0.0695653558722009</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0.0432692307692308</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.7067307692307691</v>
-      </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1675</v>
+        <v>0.36</v>
       </c>
       <c r="K45" t="n">
-        <v>0.001003434065934</v>
+        <v>0.0133434886656745</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.0002001985352793</v>
+        <v>-0.0746812232079614</v>
       </c>
       <c r="M45" t="n">
-        <v>0.0030822287354718</v>
+        <v>0.0583634259028863</v>
       </c>
       <c r="N45" t="n">
-        <v>0.599065113990487</v>
+        <v>3.70652462935404</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4536,11 +4536,7 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -4550,46 +4546,46 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.40324797025367</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
         <v>1</v>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0.0449624501318275</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.912663755458515</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>8.92</v>
+        <v>97.39</v>
       </c>
       <c r="K46" t="n">
-        <v>0.102380816356299</v>
+        <v>-2.37526186705465</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0043479730069392</v>
+        <v>-7.13733558753208</v>
       </c>
       <c r="M46" t="n">
-        <v>0.231666779746728</v>
+        <v>1.36404367688044</v>
       </c>
       <c r="N46" t="n">
-        <v>1.14776699951008</v>
+        <v>-2.43891761685456</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4598,7 +4594,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4627,11 +4623,7 @@
           <t>Whai_5a</t>
         </is>
       </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -4641,7 +4633,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -4656,7 +4648,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.110335680959923</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4668,19 +4660,19 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.36</v>
+        <v>4.22</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.028714231065983</v>
+        <v>0.0508539263997878</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.09399067110160771</v>
+        <v>-0.436914753363635</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0006836311891047</v>
+        <v>0.323347906952716</v>
       </c>
       <c r="N47" t="n">
-        <v>-7.97617529610638</v>
+        <v>1.20506934596653</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4689,7 +4681,7 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q47" t="n">
@@ -4728,11 +4720,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -4743,7 +4735,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5</v>
+        <v>0.237137175383665</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -4755,19 +4747,19 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>97.5</v>
+        <v>0.366</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0466105839743173</v>
+        <v>-0.0068915094339622</v>
       </c>
       <c r="L48" t="n">
-        <v>-7.13733558753208</v>
+        <v>-0.0244191665058645</v>
       </c>
       <c r="M48" t="n">
-        <v>3.2559317259615</v>
+        <v>0.0056493499246641</v>
       </c>
       <c r="N48" t="n">
-        <v>0.0478057271531459</v>
+        <v>-1.88292607485308</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -4776,7 +4768,7 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q48" t="n">
@@ -4815,11 +4807,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -4830,31 +4822,31 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.110335680959923</v>
+        <v>0.121517480147261</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>4.22</v>
+        <v>97.75</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.261209244222997</v>
+        <v>-0.473121761658031</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.622726525651455</v>
+        <v>-1.57791099702973</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0272578897753739</v>
+        <v>0.0907286812133191</v>
       </c>
       <c r="N49" t="n">
-        <v>-6.18979251713264</v>
+        <v>-0.484012032386733</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -4902,7 +4894,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -4917,7 +4909,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.036819135060151</v>
+        <v>0.429013828493761</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -4929,19 +4921,19 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.366</v>
+        <v>4.16</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0145122934697089</v>
+        <v>-0.012541871058164</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0256545900835692</v>
+        <v>-0.0690116954709582</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0037654842207234</v>
+        <v>0.0788957317378329</v>
       </c>
       <c r="N50" t="n">
-        <v>-3.96510750538494</v>
+        <v>-0.301487285052018</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -4950,7 +4942,7 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q50" t="n">
@@ -4989,11 +4981,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -5004,31 +4996,31 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.088983712984032</v>
+        <v>0.162211845260789</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>98</v>
+        <v>0.3675</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.761995827538248</v>
+        <v>-0.0042914490861618</v>
       </c>
       <c r="L51" t="n">
-        <v>-2.2242333987566</v>
+        <v>-0.0109627544939982</v>
       </c>
       <c r="M51" t="n">
-        <v>0.08634769849819469</v>
+        <v>0.0022838363476742</v>
       </c>
       <c r="N51" t="n">
-        <v>-0.77754676279413</v>
+        <v>-1.16774124793521</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5037,7 +5029,7 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q51" t="n">
@@ -5076,11 +5068,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -5091,31 +5083,31 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.053702318165127</v>
+        <v>0.056201783747841</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>4.16</v>
+        <v>98</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.06391875</v>
+        <v>-0.7164574342879561</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.235686682606844</v>
+        <v>-1.07375084590453</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0050197306467615</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>-1.53650841346154</v>
+        <v>-0.731079014579547</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5163,7 +5155,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -5178,31 +5170,31 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.292405952161355</v>
+        <v>0.330707958503932</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>98</v>
+        <v>4.185</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.197860238353196</v>
+        <v>-0.012541871058164</v>
       </c>
       <c r="L53" t="n">
-        <v>-0.767982714590642</v>
+        <v>-0.0493513141109916</v>
       </c>
       <c r="M53" t="n">
-        <v>0.165447998768954</v>
+        <v>0.0392249630215373</v>
       </c>
       <c r="N53" t="n">
-        <v>-0.201898202401221</v>
+        <v>-0.299686285738685</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
@@ -5211,7 +5203,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q53" t="n">
@@ -5265,13 +5257,13 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.289288457492533</v>
+        <v>0.140801971162328</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -5280,16 +5272,16 @@
         <v>98</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.120919269688932</v>
+        <v>-0.337175669346522</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.469594708001666</v>
+        <v>-0.699465753159495</v>
       </c>
       <c r="M54" t="n">
-        <v>0.149771209436175</v>
+        <v>0.09423486803529681</v>
       </c>
       <c r="N54" t="n">
-        <v>-0.123387009886665</v>
+        <v>-0.344056805455635</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>

--- a/trend_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
+++ b/trend_results/Rivers/WhanganuiatPipiriki_aca75a67c4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="65">
   <si>
     <t>site name</t>
   </si>
@@ -151,40 +151,37 @@
     <t>Exceptionally unlikely improving</t>
   </si>
   <si>
+    <t>As likely as not increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely increasing</t>
+  </si>
+  <si>
     <t>Likely increasing</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
+    <t>Very unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Extremely unlikely improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Likely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
-  </si>
-  <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>As likely as not increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
+    <t>Very likely improving</t>
   </si>
   <si>
     <t>Whanganui District</t>
@@ -569,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W54"/>
+  <dimension ref="A1:W58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -663,31 +660,31 @@
         <v>39</v>
       </c>
       <c r="F2">
-        <v>0.00041986122068</v>
+        <v>0.008587843055038</v>
       </c>
       <c r="G2">
-        <v>0.0227272727272727</v>
+        <v>0.024390243902439</v>
       </c>
       <c r="H2">
-        <v>0.818181818181818</v>
+        <v>0.75609756097561</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K2">
-        <v>-0.232689091132702</v>
+        <v>-0.0649273488519065</v>
       </c>
       <c r="L2">
-        <v>-0.478667621930116</v>
+        <v>-0.122926129004824</v>
       </c>
       <c r="M2">
-        <v>-0.0788541650758188</v>
+        <v>-0.018987701430977</v>
       </c>
       <c r="N2">
-        <v>-58.1722727831755</v>
+        <v>-25.9709395407626</v>
       </c>
       <c r="O2" t="s">
         <v>43</v>
@@ -702,19 +699,19 @@
         <v>5627903</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
         <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -734,31 +731,31 @@
         <v>39</v>
       </c>
       <c r="F3">
-        <v>0.859011248221425</v>
+        <v>0.434488827182297</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.981132075471698</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.18</v>
+        <v>10.15</v>
       </c>
       <c r="K3">
-        <v>0.0374487354750514</v>
+        <v>-0.0124829118250173</v>
       </c>
       <c r="L3">
-        <v>-0.0201722808353864</v>
+        <v>-0.0818514385656432</v>
       </c>
       <c r="M3">
-        <v>0.0660583523519022</v>
+        <v>0.0894083525929472</v>
       </c>
       <c r="N3">
-        <v>0.367865770874768</v>
+        <v>-0.122984352955835</v>
       </c>
       <c r="O3" t="s">
         <v>43</v>
@@ -773,19 +770,19 @@
         <v>5627903</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -805,37 +802,37 @@
         <v>39</v>
       </c>
       <c r="F4">
-        <v>0.178086413912429</v>
+        <v>0.0054448268027467</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.357142857142857</v>
+        <v>0.368421052631579</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="K4">
-        <v>0.0003162337662337</v>
+        <v>0.0009248806843258</v>
       </c>
       <c r="L4">
-        <v>-0.0002610559674792</v>
+        <v>0.0002841713452987</v>
       </c>
       <c r="M4">
-        <v>0.0011148416271503</v>
+        <v>0.0014472334517758</v>
       </c>
       <c r="N4">
-        <v>3.51370851370851</v>
+        <v>11.5610085540736</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="Q4">
         <v>1775744</v>
@@ -844,19 +841,19 @@
         <v>5627903</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -876,31 +873,31 @@
         <v>39</v>
       </c>
       <c r="F5">
-        <v>0.242421190820533</v>
+        <v>0.144959226971285</v>
       </c>
       <c r="G5">
-        <v>0.0357142857142857</v>
+        <v>0.0350877192982456</v>
       </c>
       <c r="H5">
-        <v>0.696428571428571</v>
+        <v>0.754385964912281</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>89</v>
+        <v>111.6</v>
       </c>
       <c r="K5">
-        <v>5.95717376002198</v>
+        <v>4.20730353107239</v>
       </c>
       <c r="L5">
-        <v>-3.65841432951714</v>
+        <v>-5.68868632993715</v>
       </c>
       <c r="M5">
-        <v>33.3861527737115</v>
+        <v>50.9229890725656</v>
       </c>
       <c r="N5">
-        <v>6.69345366294604</v>
+        <v>3.7699852428964</v>
       </c>
       <c r="O5" t="s">
         <v>43</v>
@@ -915,19 +912,19 @@
         <v>5627903</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -947,16 +944,16 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.961998123099152</v>
+        <v>0.720655180248283</v>
       </c>
       <c r="G6">
-        <v>0.862745098039216</v>
+        <v>0.907407407407407</v>
       </c>
       <c r="H6">
-        <v>0.176470588235294</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0.005</v>
@@ -986,19 +983,19 @@
         <v>5627903</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1018,25 +1015,25 @@
         <v>41</v>
       </c>
       <c r="F7">
-        <v>0.978445793793925</v>
+        <v>0.996440923785966</v>
       </c>
       <c r="G7">
-        <v>0.5</v>
+        <v>0.578947368421053</v>
       </c>
       <c r="H7">
-        <v>0.125</v>
+        <v>0.105263157894737</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.0015</v>
+        <v>0.001</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>-0.0003147384425021</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1048,7 +1045,7 @@
         <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q7">
         <v>1775744</v>
@@ -1057,19 +1054,19 @@
         <v>5627903</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1086,16 +1083,16 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F8">
-        <v>0.0102542401007803</v>
+        <v>0.407575578791401</v>
       </c>
       <c r="G8">
-        <v>0.142857142857143</v>
+        <v>0.157894736842105</v>
       </c>
       <c r="H8">
-        <v>0.821428571428571</v>
+        <v>0.807017543859649</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1104,22 +1101,22 @@
         <v>0.191</v>
       </c>
       <c r="K8">
-        <v>0.015553228021978</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.0009578619116431</v>
+        <v>-0.0071180176454852</v>
       </c>
       <c r="M8">
-        <v>0.0314175798828512</v>
+        <v>0.0109931321875722</v>
       </c>
       <c r="N8">
-        <v>8.14305132040734</v>
+        <v>0</v>
       </c>
       <c r="O8" t="s">
         <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8">
         <v>1775744</v>
@@ -1128,19 +1125,19 @@
         <v>5627903</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1160,37 +1157,37 @@
         <v>39</v>
       </c>
       <c r="F9">
-        <v>0.0028655610782579</v>
+        <v>0.023940666834995</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.754716981132076</v>
+        <v>0.722222222222222</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.69</v>
+        <v>7.635</v>
       </c>
       <c r="K9">
-        <v>-0.072204553425298</v>
+        <v>-0.0533006912442397</v>
       </c>
       <c r="L9">
-        <v>-0.11365749334727</v>
+        <v>-0.09597190010592339</v>
       </c>
       <c r="M9">
-        <v>-0.0334899264858327</v>
+        <v>-0.009076493195143901</v>
       </c>
       <c r="N9">
-        <v>-0.938940876791912</v>
+        <v>-0.698109904967122</v>
       </c>
       <c r="O9" t="s">
         <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q9">
         <v>1775744</v>
@@ -1199,16 +1196,16 @@
         <v>5627903</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,37 +1225,37 @@
         <v>39</v>
       </c>
       <c r="F10">
-        <v>0.0063656821349617</v>
+        <v>0.272674834005562</v>
       </c>
       <c r="G10">
-        <v>0.0178571428571429</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.875</v>
+        <v>0.912280701754386</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1965</v>
+        <v>0.2</v>
       </c>
       <c r="K10">
-        <v>0.0163361622453979</v>
+        <v>0.0020294172120014</v>
       </c>
       <c r="L10">
-        <v>0.003278842296406</v>
+        <v>-0.007741413832939</v>
       </c>
       <c r="M10">
-        <v>0.0324250169165864</v>
+        <v>0.0133923578119467</v>
       </c>
       <c r="N10">
-        <v>8.313568572721589</v>
+        <v>1.01470860600074</v>
       </c>
       <c r="O10" t="s">
         <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q10">
         <v>1775744</v>
@@ -1267,19 +1264,19 @@
         <v>5627903</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1299,37 +1296,37 @@
         <v>39</v>
       </c>
       <c r="F11">
-        <v>0.155022061938262</v>
+        <v>0.351510201452675</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.625</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.395</v>
+        <v>0.4</v>
       </c>
       <c r="K11">
-        <v>0.0132939035486806</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="L11">
-        <v>-0.0049948177428616</v>
+        <v>-0.0160082069030357</v>
       </c>
       <c r="M11">
-        <v>0.0384765872507798</v>
+        <v>0.0328768551426736</v>
       </c>
       <c r="N11">
-        <v>3.36554520219762</v>
+        <v>1.25429258241758</v>
       </c>
       <c r="O11" t="s">
         <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q11">
         <v>1775744</v>
@@ -1338,19 +1335,19 @@
         <v>5627903</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1370,37 +1367,37 @@
         <v>39</v>
       </c>
       <c r="F12">
-        <v>0.32800621281409</v>
+        <v>0.5737611275146141</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.785714285714286</v>
+        <v>0.771929824561403</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0385</v>
+        <v>0.039</v>
       </c>
       <c r="K12">
-        <v>0.0010084939822943</v>
+        <v>-0.0003767454980115</v>
       </c>
       <c r="L12">
-        <v>-0.0028988095238095</v>
+        <v>-0.0040565679280635</v>
       </c>
       <c r="M12">
-        <v>0.0052178571428571</v>
+        <v>0.0035572965907451</v>
       </c>
       <c r="N12">
-        <v>2.61946488907627</v>
+        <v>-0.966014097465459</v>
       </c>
       <c r="O12" t="s">
         <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q12">
         <v>1775744</v>
@@ -1409,19 +1406,19 @@
         <v>5627903</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1435,43 +1432,43 @@
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
       <c r="F13">
-        <v>0.157937239915245</v>
+        <v>0.8616304533599199</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.982142857142857</v>
+        <v>0.982456140350877</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.65</v>
+        <v>10.9</v>
       </c>
       <c r="K13">
-        <v>0.890547733516484</v>
+        <v>-1.02566701680672</v>
       </c>
       <c r="L13">
-        <v>-0.762726762443512</v>
+        <v>-3.37897894170196</v>
       </c>
       <c r="M13">
-        <v>3.21098901098901</v>
+        <v>0.568877697619008</v>
       </c>
       <c r="N13">
-        <v>7.64418655378956</v>
+        <v>-9.4097891450158</v>
       </c>
       <c r="O13" t="s">
         <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q13">
         <v>1775744</v>
@@ -1480,19 +1477,19 @@
         <v>5627903</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1512,37 +1509,37 @@
         <v>39</v>
       </c>
       <c r="F14">
-        <v>0.013713124396395</v>
+        <v>0.004394181983365</v>
       </c>
       <c r="G14">
-        <v>0.0206185567010309</v>
+        <v>0.0210526315789474</v>
       </c>
       <c r="H14">
-        <v>0.752577319587629</v>
+        <v>0.768421052631579</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="K14">
-        <v>-0.0399835796387521</v>
+        <v>-0.0442488776199839</v>
       </c>
       <c r="L14">
-        <v>-0.08196547142690309</v>
+        <v>-0.07473730498684331</v>
       </c>
       <c r="M14">
-        <v>-0.0060447028010632</v>
+        <v>-0.0106776829455844</v>
       </c>
       <c r="N14">
-        <v>-8.692082530163489</v>
+        <v>-11.062219404996</v>
       </c>
       <c r="O14" t="s">
         <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="Q14">
         <v>1775744</v>
@@ -1551,19 +1548,19 @@
         <v>5627903</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
+        <v>59</v>
+      </c>
+      <c r="W14" t="s">
         <v>60</v>
-      </c>
-      <c r="W14" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1583,37 +1580,37 @@
         <v>39</v>
       </c>
       <c r="F15">
-        <v>0.970920551120783</v>
+        <v>0.824047050907239</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.900900900900901</v>
+        <v>0.927272727272727</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.18</v>
+        <v>10.25</v>
       </c>
       <c r="K15">
-        <v>0.0328796477495108</v>
+        <v>0.0188413188958079</v>
       </c>
       <c r="L15">
-        <v>0.0055939142030133</v>
+        <v>-0.013481785137096</v>
       </c>
       <c r="M15">
-        <v>0.0596862235647112</v>
+        <v>0.0420908939385439</v>
       </c>
       <c r="N15">
-        <v>0.322982787323289</v>
+        <v>0.183817745324955</v>
       </c>
       <c r="O15" t="s">
         <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15">
         <v>1775744</v>
@@ -1622,19 +1619,19 @@
         <v>5627903</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1654,7 +1651,7 @@
         <v>39</v>
       </c>
       <c r="F16">
-        <v>0.994441344425968</v>
+        <v>0.994363282921586</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1666,25 +1663,25 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.011</v>
+        <v>0.01</v>
       </c>
       <c r="K16">
-        <v>-0.0003896420273499</v>
+        <v>-0.0003938005390835</v>
       </c>
       <c r="L16">
-        <v>-0.0006835890113408</v>
+        <v>-0.000683160334322</v>
       </c>
       <c r="M16">
-        <v>-0.0001036807921918</v>
+        <v>-0.0001083792259174</v>
       </c>
       <c r="N16">
-        <v>-3.54220024863612</v>
+        <v>-3.93800539083558</v>
       </c>
       <c r="O16" t="s">
         <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q16">
         <v>1775744</v>
@@ -1693,19 +1690,19 @@
         <v>5627903</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1725,31 +1722,31 @@
         <v>39</v>
       </c>
       <c r="F17">
-        <v>0.246348159485544</v>
+        <v>0.237861245476338</v>
       </c>
       <c r="G17">
         <v>0.0260869565217391</v>
       </c>
       <c r="H17">
-        <v>0.634782608695652</v>
+        <v>0.678260869565217</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="K17">
-        <v>1.60549450549451</v>
+        <v>1.33181403828624</v>
       </c>
       <c r="L17">
-        <v>-2.45828067643694</v>
+        <v>-2.11159631063926</v>
       </c>
       <c r="M17">
-        <v>10.0343406593407</v>
+        <v>7.27867254882772</v>
       </c>
       <c r="N17">
-        <v>1.88881706528765</v>
+        <v>1.35899391661861</v>
       </c>
       <c r="O17" t="s">
         <v>43</v>
@@ -1764,19 +1761,19 @@
         <v>5627903</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1796,13 +1793,13 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.7733625104176119</v>
+        <v>0.738031982852936</v>
       </c>
       <c r="G18">
-        <v>0.875</v>
+        <v>0.884615384615385</v>
       </c>
       <c r="H18">
-        <v>0.201923076923077</v>
+        <v>0.192307692307692</v>
       </c>
       <c r="I18">
         <v>8</v>
@@ -1826,7 +1823,7 @@
         <v>43</v>
       </c>
       <c r="P18" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1775744</v>
@@ -1835,19 +1832,19 @@
         <v>5627903</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1867,37 +1864,37 @@
         <v>41</v>
       </c>
       <c r="F19">
-        <v>0.999631554758698</v>
+        <v>0.999998158906409</v>
       </c>
       <c r="G19">
-        <v>0.370689655172414</v>
+        <v>0.456896551724138</v>
       </c>
       <c r="H19">
-        <v>0.146551724137931</v>
+        <v>0.129310344827586</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="K19">
-        <v>-0.0001264717431195</v>
+        <v>-0.0002250180891689</v>
       </c>
       <c r="L19">
-        <v>-0.0003162344328644</v>
+        <v>-0.0003863677557327</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>-4.2157247706532</v>
+        <v>-11.2509044584464</v>
       </c>
       <c r="O19" t="s">
         <v>43</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q19">
         <v>1775744</v>
@@ -1906,19 +1903,19 @@
         <v>5627903</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1935,16 +1932,16 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20">
-        <v>0.0057128095934908</v>
+        <v>0.101876488619223</v>
       </c>
       <c r="G20">
-        <v>0.146551724137931</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H20">
-        <v>0.801724137931034</v>
+        <v>0.818965517241379</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1953,22 +1950,22 @@
         <v>0.1715</v>
       </c>
       <c r="K20">
-        <v>0.0053921292803584</v>
+        <v>0.0015505293273605</v>
       </c>
       <c r="L20">
-        <v>5.46617457753849E-05</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.0117242664604217</v>
+        <v>0.0066259433819944</v>
       </c>
       <c r="N20">
-        <v>3.14409870574836</v>
+        <v>0.904098733154832</v>
       </c>
       <c r="O20" t="s">
         <v>43</v>
       </c>
       <c r="P20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q20">
         <v>1775744</v>
@@ -1977,19 +1974,19 @@
         <v>5627903</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,13 +2006,13 @@
         <v>39</v>
       </c>
       <c r="F21">
-        <v>0.215445607231325</v>
+        <v>0.017072915098215</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.612612612612613</v>
+        <v>0.603603603603604</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2024,22 +2021,22 @@
         <v>7.68</v>
       </c>
       <c r="K21">
-        <v>-0.0071282201405152</v>
+        <v>-0.0176278957528958</v>
       </c>
       <c r="L21">
-        <v>-0.021275312316039</v>
+        <v>-0.0325106288325613</v>
       </c>
       <c r="M21">
-        <v>0.0068461524459224</v>
+        <v>-0.004034397206724</v>
       </c>
       <c r="N21">
-        <v>-0.0928153664129583</v>
+        <v>-0.229529892615831</v>
       </c>
       <c r="O21" t="s">
         <v>43</v>
       </c>
       <c r="P21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Q21">
         <v>1775744</v>
@@ -2048,16 +2045,16 @@
         <v>5627903</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2074,10 +2071,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22">
-        <v>0.0022806856944202</v>
+        <v>0.0670158437806932</v>
       </c>
       <c r="G22">
         <v>0.0517241379310345</v>
@@ -2092,22 +2089,22 @@
         <v>0.1915</v>
       </c>
       <c r="K22">
-        <v>0.0064335746610121</v>
+        <v>0.0020020670119354</v>
       </c>
       <c r="L22">
-        <v>0.0012411265992345</v>
+        <v>-0.0003114100732654</v>
       </c>
       <c r="M22">
-        <v>0.0133229151374175</v>
+        <v>0.0071900962692844</v>
       </c>
       <c r="N22">
-        <v>3.35956901358335</v>
+        <v>1.04546580257725</v>
       </c>
       <c r="O22" t="s">
         <v>43</v>
       </c>
       <c r="P22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q22">
         <v>1775744</v>
@@ -2116,19 +2113,19 @@
         <v>5627903</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2145,40 +2142,40 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F23">
-        <v>0.157857255944052</v>
+        <v>0.5</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.629310344827586</v>
+        <v>0.568965517241379</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.39</v>
+        <v>0.3985</v>
       </c>
       <c r="K23">
-        <v>0.0059156136427173</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>-0.0026500117001964</v>
+        <v>-0.0071103418069836</v>
       </c>
       <c r="M23">
-        <v>0.0161898171373197</v>
+        <v>0.009986329460013601</v>
       </c>
       <c r="N23">
-        <v>1.51682401095317</v>
+        <v>0</v>
       </c>
       <c r="O23" t="s">
         <v>43</v>
       </c>
       <c r="P23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q23">
         <v>1775744</v>
@@ -2187,19 +2184,19 @@
         <v>5627903</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2219,37 +2216,37 @@
         <v>39</v>
       </c>
       <c r="F24">
-        <v>0.0287009701618789</v>
+        <v>0.218230905163888</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.543103448275862</v>
+        <v>0.586206896551724</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0325</v>
+        <v>0.0365</v>
       </c>
       <c r="K24">
-        <v>0.0012134551495016</v>
+        <v>0.0005013729197756</v>
       </c>
       <c r="L24">
-        <v>2.64425772354318E-05</v>
+        <v>-0.0005009721951963</v>
       </c>
       <c r="M24">
-        <v>0.0025257167189016</v>
+        <v>0.0017971794484387</v>
       </c>
       <c r="N24">
-        <v>3.7337081523128</v>
+        <v>1.37362443774164</v>
       </c>
       <c r="O24" t="s">
         <v>43</v>
       </c>
       <c r="P24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q24">
         <v>1775744</v>
@@ -2258,19 +2255,19 @@
         <v>5627903</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2290,7 +2287,7 @@
         <v>39</v>
       </c>
       <c r="F25">
-        <v>0.0186784715937869</v>
+        <v>0.232696194062133</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2302,25 +2299,25 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.58</v>
+        <v>9.4</v>
       </c>
       <c r="K25">
-        <v>0.639689217032967</v>
+        <v>0.193965245281035</v>
       </c>
       <c r="L25">
-        <v>0.14699556522761</v>
+        <v>-0.185035052652414</v>
       </c>
       <c r="M25">
-        <v>1.48248699306336</v>
+        <v>0.8023209172518651</v>
       </c>
       <c r="N25">
-        <v>7.45558528010451</v>
+        <v>2.06346005618122</v>
       </c>
       <c r="O25" t="s">
         <v>43</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1775744</v>
@@ -2329,19 +2326,19 @@
         <v>5627903</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2361,31 +2358,31 @@
         <v>39</v>
       </c>
       <c r="F26">
-        <v>0.217123356236768</v>
+        <v>0.172681881806324</v>
       </c>
       <c r="G26">
         <v>0.0273972602739726</v>
       </c>
       <c r="H26">
-        <v>0.595890410958904</v>
+        <v>0.582191780821918</v>
       </c>
       <c r="I26">
         <v>3</v>
       </c>
       <c r="J26">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="K26">
-        <v>-0.0057686203245767</v>
+        <v>-0.006445270758965</v>
       </c>
       <c r="L26">
-        <v>-0.0229231533793219</v>
+        <v>-0.0218562876565602</v>
       </c>
       <c r="M26">
-        <v>0.0075457687090065</v>
+        <v>0.0037042099812873</v>
       </c>
       <c r="N26">
-        <v>-1.15372406491534</v>
+        <v>-1.4989001765035</v>
       </c>
       <c r="O26" t="s">
         <v>43</v>
@@ -2400,19 +2397,19 @@
         <v>5627903</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
+        <v>59</v>
+      </c>
+      <c r="W26" t="s">
         <v>60</v>
-      </c>
-      <c r="W26" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2432,13 +2429,13 @@
         <v>39</v>
       </c>
       <c r="F27">
-        <v>0.850841053647183</v>
+        <v>0.9613717432411369</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.8511904761904761</v>
+        <v>0.863095238095238</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2447,22 +2444,22 @@
         <v>10.32</v>
       </c>
       <c r="K27">
-        <v>0.0171545988258316</v>
+        <v>0.0256330463838115</v>
       </c>
       <c r="L27">
-        <v>-0.0078396030537046</v>
+        <v>0.0014052787817775</v>
       </c>
       <c r="M27">
-        <v>0.0378017409327299</v>
+        <v>0.0450298214600183</v>
       </c>
       <c r="N27">
-        <v>0.166226732808446</v>
+        <v>0.248382232401274</v>
       </c>
       <c r="O27" t="s">
         <v>43</v>
       </c>
       <c r="P27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1775744</v>
@@ -2471,19 +2468,19 @@
         <v>5627903</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2500,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F28">
-        <v>0.0215182455286319</v>
+        <v>0.135475138167692</v>
       </c>
       <c r="G28">
         <v>0.108571428571429</v>
       </c>
       <c r="H28">
-        <v>0.16</v>
+        <v>0.165714285714286</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2518,22 +2515,22 @@
         <v>0.008999999999999999</v>
       </c>
       <c r="K28">
-        <v>0.000138012469299</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0.0003060326770004</v>
+        <v>0.0002220364741641</v>
       </c>
       <c r="N28">
-        <v>1.53347188110083</v>
+        <v>0</v>
       </c>
       <c r="O28" t="s">
         <v>43</v>
       </c>
       <c r="P28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q28">
         <v>1775744</v>
@@ -2542,19 +2539,19 @@
         <v>5627903</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2574,13 +2571,13 @@
         <v>42</v>
       </c>
       <c r="F29">
-        <v>0.488014490178841</v>
+        <v>0.482035243594516</v>
       </c>
       <c r="G29">
         <v>0.0229885057471264</v>
       </c>
       <c r="H29">
-        <v>0.6781609195402299</v>
+        <v>0.701149425287356</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -2592,10 +2589,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>-2.25812109214756</v>
+        <v>-2.11928900543989</v>
       </c>
       <c r="M29">
-        <v>2.37494415809512</v>
+        <v>2.38672692256395</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2604,7 +2601,7 @@
         <v>43</v>
       </c>
       <c r="P29" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q29">
         <v>1775744</v>
@@ -2613,19 +2610,19 @@
         <v>5627903</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2645,13 +2642,13 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.999921186902075</v>
+        <v>0.999996285444993</v>
       </c>
       <c r="G30">
-        <v>0.7654320987654319</v>
+        <v>0.773006134969325</v>
       </c>
       <c r="H30">
-        <v>0.290123456790123</v>
+        <v>0.282208588957055</v>
       </c>
       <c r="I30">
         <v>9</v>
@@ -2675,7 +2672,7 @@
         <v>43</v>
       </c>
       <c r="P30" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Q30">
         <v>1775744</v>
@@ -2684,19 +2681,19 @@
         <v>5627903</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,19 +2713,19 @@
         <v>41</v>
       </c>
       <c r="F31">
-        <v>0.462730288106485</v>
+        <v>0.8607011433312</v>
       </c>
       <c r="G31">
-        <v>0.460606060606061</v>
+        <v>0.485714285714286</v>
       </c>
       <c r="H31">
-        <v>0.103030303030303</v>
+        <v>0.0971428571428571</v>
       </c>
       <c r="I31">
         <v>3</v>
       </c>
       <c r="J31">
-        <v>0.0025</v>
+        <v>0.002</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2746,7 +2743,7 @@
         <v>43</v>
       </c>
       <c r="P31" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1775744</v>
@@ -2755,19 +2752,19 @@
         <v>5627903</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2787,37 +2784,37 @@
         <v>39</v>
       </c>
       <c r="F32">
-        <v>0.0015520572881166</v>
+        <v>0.0170872429506996</v>
       </c>
       <c r="G32">
-        <v>0.145454545454545</v>
+        <v>0.148571428571429</v>
       </c>
       <c r="H32">
-        <v>0.775757575757576</v>
+        <v>0.771428571428571</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0.159</v>
+        <v>0.1576</v>
       </c>
       <c r="K32">
-        <v>0.0038520354355621</v>
+        <v>0.0016927868506759</v>
       </c>
       <c r="L32">
-        <v>0.0004417834538507</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>0.0068247020559455</v>
+        <v>0.0046394160997324</v>
       </c>
       <c r="N32">
-        <v>2.42266379595102</v>
+        <v>1.07410333164719</v>
       </c>
       <c r="O32" t="s">
         <v>43</v>
       </c>
       <c r="P32" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="Q32">
         <v>1775744</v>
@@ -2826,19 +2823,19 @@
         <v>5627903</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2858,13 +2855,13 @@
         <v>39</v>
       </c>
       <c r="F33">
-        <v>0.5982527376157361</v>
+        <v>0.033600802807027</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0.5976331360946751</v>
+        <v>0.552941176470588</v>
       </c>
       <c r="I33">
         <v>0</v>
@@ -2873,22 +2870,22 @@
         <v>7.69</v>
       </c>
       <c r="K33">
-        <v>0.0016643924770412</v>
+        <v>-0.0103580290677065</v>
       </c>
       <c r="L33">
-        <v>-0.0100308311111452</v>
+        <v>-0.0191949096049584</v>
       </c>
       <c r="M33">
-        <v>0.0140940892617591</v>
+        <v>-0.0009444818331543001</v>
       </c>
       <c r="N33">
-        <v>0.0216435952801203</v>
+        <v>-0.134694786316079</v>
       </c>
       <c r="O33" t="s">
         <v>43</v>
       </c>
       <c r="P33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Q33">
         <v>1775744</v>
@@ -2897,16 +2894,16 @@
         <v>5627903</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2926,37 +2923,37 @@
         <v>39</v>
       </c>
       <c r="F34">
-        <v>0.0125680431661993</v>
+        <v>0.0804038238883186</v>
       </c>
       <c r="G34">
-        <v>0.04</v>
+        <v>0.0342857142857143</v>
       </c>
       <c r="H34">
-        <v>0.8114285714285711</v>
+        <v>0.822857142857143</v>
       </c>
       <c r="I34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>0.175</v>
+        <v>0.17</v>
       </c>
       <c r="K34">
-        <v>0.0026503186458807</v>
+        <v>0.0013764210707056</v>
       </c>
       <c r="L34">
-        <v>0.0001908115125541</v>
+        <v>-0.0001426638251376</v>
       </c>
       <c r="M34">
-        <v>0.0052206751388246</v>
+        <v>0.0042613098797279</v>
       </c>
       <c r="N34">
-        <v>1.51446779764616</v>
+        <v>0.809659453356246</v>
       </c>
       <c r="O34" t="s">
         <v>43</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q34">
         <v>1775744</v>
@@ -2965,19 +2962,19 @@
         <v>5627903</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2994,40 +2991,40 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35">
-        <v>0.494064121263714</v>
+        <v>0.931597433310587</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>0.617142857142857</v>
+        <v>0.594285714285714</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.39</v>
+        <v>0.397</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>-0.004266592198202</v>
       </c>
       <c r="L35">
-        <v>-0.004260357389622</v>
+        <v>-0.0077225667728167</v>
       </c>
       <c r="M35">
-        <v>0.004869556751488</v>
+        <v>4.63870100895501E-05</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>-1.07470836226752</v>
       </c>
       <c r="O35" t="s">
         <v>43</v>
       </c>
       <c r="P35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q35">
         <v>1775744</v>
@@ -3036,19 +3033,19 @@
         <v>5627903</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3068,13 +3065,13 @@
         <v>39</v>
       </c>
       <c r="F36">
-        <v>0.170286778805001</v>
+        <v>0.280768127041663</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.485714285714286</v>
+        <v>0.502857142857143</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -3083,16 +3080,16 @@
         <v>0.033</v>
       </c>
       <c r="K36">
-        <v>0.0003167029681118</v>
+        <v>0.0001999178981937</v>
       </c>
       <c r="L36">
-        <v>-0.0002004152377401</v>
+        <v>-0.0004192591619155</v>
       </c>
       <c r="M36">
-        <v>0.0009953560348027999</v>
+        <v>0.0008797740641812</v>
       </c>
       <c r="N36">
-        <v>0.959705963975154</v>
+        <v>0.605811812708362</v>
       </c>
       <c r="O36" t="s">
         <v>43</v>
@@ -3107,19 +3104,19 @@
         <v>5627903</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3139,7 +3136,7 @@
         <v>39</v>
       </c>
       <c r="F37">
-        <v>0.0315920880213748</v>
+        <v>0.215422431370257</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -3151,25 +3148,25 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>8.69</v>
+        <v>9.42</v>
       </c>
       <c r="K37">
-        <v>0.227665868357833</v>
+        <v>0.117370162843679</v>
       </c>
       <c r="L37">
-        <v>0.0367545434708182</v>
+        <v>-0.108654506992463</v>
       </c>
       <c r="M37">
-        <v>0.519184224272216</v>
+        <v>0.304189979146912</v>
       </c>
       <c r="N37">
-        <v>2.61986039537207</v>
+        <v>1.24596775842546</v>
       </c>
       <c r="O37" t="s">
         <v>43</v>
       </c>
       <c r="P37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q37">
         <v>1775744</v>
@@ -3178,19 +3175,19 @@
         <v>5627903</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3210,37 +3207,37 @@
         <v>39</v>
       </c>
       <c r="F38">
-        <v>0.07925771949947299</v>
+        <v>0.019750769273788</v>
       </c>
       <c r="G38">
-        <v>0.0202020202020202</v>
+        <v>0.0205128205128205</v>
       </c>
       <c r="H38">
-        <v>0.575757575757576</v>
+        <v>0.558974358974359</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="K38">
-        <v>-0.0053871681415929</v>
+        <v>-0.008806863848255899</v>
       </c>
       <c r="L38">
-        <v>-0.0150030669797785</v>
+        <v>-0.0180620764711717</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>-0.0012596155737623</v>
       </c>
       <c r="N38">
-        <v>-1.07743362831858</v>
+        <v>-1.79731915270529</v>
       </c>
       <c r="O38" t="s">
         <v>43</v>
       </c>
       <c r="P38" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q38">
         <v>1775744</v>
@@ -3249,19 +3246,19 @@
         <v>5627903</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
+        <v>59</v>
+      </c>
+      <c r="W38" t="s">
         <v>60</v>
-      </c>
-      <c r="W38" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3269,49 +3266,49 @@
         <v>23</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C39">
         <v>20</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F39">
-        <v>0.317454356215475</v>
+        <v>0.630984597470861</v>
       </c>
       <c r="G39">
-        <v>0.126086956521739</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>0.152173913043478</v>
+        <v>0.849740932642487</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>0.01</v>
+        <v>10.32</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.0049852138307554</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-0.0154396537265274</v>
       </c>
       <c r="M39">
-        <v>0.000111254949741</v>
+        <v>0.0256197558355237</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.0483063355693355</v>
       </c>
       <c r="O39" t="s">
         <v>43</v>
       </c>
       <c r="P39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q39">
         <v>1775744</v>
@@ -3320,19 +3317,19 @@
         <v>5627903</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3340,49 +3337,49 @@
         <v>23</v>
       </c>
       <c r="B40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>20</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
         <v>41</v>
       </c>
       <c r="F40">
-        <v>0.684332286225971</v>
+        <v>0.361938938923461</v>
       </c>
       <c r="G40">
-        <v>0.0349344978165939</v>
+        <v>0.120689655172414</v>
       </c>
       <c r="H40">
-        <v>0.611353711790393</v>
+        <v>0.150862068965517</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K40">
-        <v>-0.260809976741358</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>-1.98827653368381</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>0.998681049460556</v>
+        <v>8.94323115629916E-05</v>
       </c>
       <c r="N40">
-        <v>-0.260809976741358</v>
+        <v>0</v>
       </c>
       <c r="O40" t="s">
         <v>43</v>
       </c>
       <c r="P40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Q40">
         <v>1775744</v>
@@ -3391,19 +3388,19 @@
         <v>5627903</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3411,49 +3408,49 @@
         <v>23</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C41">
         <v>20</v>
       </c>
       <c r="D41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F41">
-        <v>0.9988434364045931</v>
+        <v>0.73995855916033</v>
       </c>
       <c r="G41">
-        <v>0.757281553398058</v>
+        <v>0.0346320346320346</v>
       </c>
       <c r="H41">
-        <v>0.286407766990291</v>
+        <v>0.653679653679654</v>
       </c>
       <c r="I41">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J41">
-        <v>0.005</v>
+        <v>101.4</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>-0.473047488226059</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>-2.13379863244196</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.77897075779447</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>-0.466516260577968</v>
       </c>
       <c r="O41" t="s">
         <v>43</v>
       </c>
       <c r="P41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="Q41">
         <v>1775744</v>
@@ -3462,16 +3459,16 @@
         <v>5627903</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W41" t="s">
         <v>63</v>
@@ -3482,49 +3479,49 @@
         <v>23</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C42">
         <v>20</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F42">
-        <v>0.0016044189799531</v>
+        <v>0.999511709165584</v>
       </c>
       <c r="G42">
-        <v>0.132701421800948</v>
+        <v>0.76605504587156</v>
       </c>
       <c r="H42">
-        <v>0.701421800947867</v>
+        <v>0.275229357798165</v>
       </c>
       <c r="I42">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J42">
-        <v>0.16</v>
+        <v>0.005</v>
       </c>
       <c r="K42">
-        <v>0.0022272393454968</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.0002454056768692</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>0.0044379324372358</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>1.39202459093555</v>
+        <v>0</v>
       </c>
       <c r="O42" t="s">
         <v>43</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="Q42">
         <v>1775744</v>
@@ -3533,19 +3530,19 @@
         <v>5627903</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3553,7 +3550,7 @@
         <v>23</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>20</v>
@@ -3562,34 +3559,34 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F43">
-        <v>0.0051848724728674</v>
+        <v>0.0038883210049762</v>
       </c>
       <c r="G43">
-        <v>0.0409090909090909</v>
+        <v>0.136150234741784</v>
       </c>
       <c r="H43">
-        <v>0.772727272727273</v>
+        <v>0.732394366197183</v>
       </c>
       <c r="I43">
         <v>3</v>
       </c>
       <c r="J43">
-        <v>0.1725</v>
+        <v>0.16</v>
       </c>
       <c r="K43">
-        <v>0.0023415160363695</v>
+        <v>0.0020004564125969</v>
       </c>
       <c r="L43">
-        <v>0.0005526282693781</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>0.0043274857028571</v>
+        <v>0.003928735228057</v>
       </c>
       <c r="N43">
-        <v>1.35740060079392</v>
+        <v>1.25028525787312</v>
       </c>
       <c r="O43" t="s">
         <v>43</v>
@@ -3604,16 +3601,16 @@
         <v>5627903</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W43" t="s">
         <v>62</v>
@@ -3624,49 +3621,49 @@
         <v>23</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C44">
         <v>20</v>
       </c>
       <c r="D44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
         <v>39</v>
       </c>
       <c r="F44">
-        <v>0.0266532060597397</v>
+        <v>0.742739428193671</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.9304347826086961</v>
+        <v>0.54950495049505</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>8.640000000000001</v>
+        <v>7.67</v>
       </c>
       <c r="K44">
-        <v>0.132126610030145</v>
+        <v>0.0036642255216693</v>
       </c>
       <c r="L44">
-        <v>0.0256973581359382</v>
+        <v>-0.0055869895744338</v>
       </c>
       <c r="M44">
-        <v>0.276278916383124</v>
+        <v>0.012726480836237</v>
       </c>
       <c r="N44">
-        <v>1.5292431716452</v>
+        <v>0.0477734748587918</v>
       </c>
       <c r="O44" t="s">
         <v>43</v>
       </c>
       <c r="P44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q44">
         <v>1775744</v>
@@ -3675,19 +3672,16 @@
         <v>5627903</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
-      </c>
-      <c r="W44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3695,43 +3689,43 @@
         <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C45">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
         <v>39</v>
       </c>
       <c r="F45">
-        <v>0.59675202974633</v>
+        <v>0.0152168390691529</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.0387931034482759</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0.775862068965517</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45">
-        <v>0.36</v>
+        <v>0.1695</v>
       </c>
       <c r="K45">
-        <v>0.0133434886656745</v>
+        <v>0.0016170026627069</v>
       </c>
       <c r="L45">
-        <v>-0.0746812232079614</v>
+        <v>0.0001230615681305</v>
       </c>
       <c r="M45">
-        <v>0.0583634259028863</v>
+        <v>0.0034788196909296</v>
       </c>
       <c r="N45">
-        <v>3.70652462935404</v>
+        <v>0.9539838718035289</v>
       </c>
       <c r="O45" t="s">
         <v>43</v>
@@ -3746,16 +3740,19 @@
         <v>5627903</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="W45" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3763,49 +3760,49 @@
         <v>23</v>
       </c>
       <c r="B46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C46">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
         <v>39</v>
       </c>
       <c r="F46">
-        <v>0.40324797025367</v>
+        <v>0.214613804124518</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0.54066985645933</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>97.39</v>
+        <v>0.39</v>
       </c>
       <c r="K46">
-        <v>-2.37526186705465</v>
+        <v>0.0018769270298047</v>
       </c>
       <c r="L46">
-        <v>-7.13733558753208</v>
+        <v>-0.0014350150698847</v>
       </c>
       <c r="M46">
-        <v>1.36404367688044</v>
+        <v>0.0054277670956422</v>
       </c>
       <c r="N46">
-        <v>-2.43891761685456</v>
+        <v>0.481263340975572</v>
       </c>
       <c r="O46" t="s">
         <v>43</v>
       </c>
       <c r="P46" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q46">
         <v>1775744</v>
@@ -3814,16 +3811,19 @@
         <v>5627903</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="W46" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3831,49 +3831,49 @@
         <v>23</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
         <v>39</v>
       </c>
       <c r="F47">
-        <v>0.59675202974633</v>
+        <v>0.145752292691842</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0.449760765550239</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>4.22</v>
+        <v>0.033</v>
       </c>
       <c r="K47">
-        <v>0.0508539263997878</v>
+        <v>0.0002484693877551</v>
       </c>
       <c r="L47">
-        <v>-0.436914753363635</v>
+        <v>-0.0001433477237048</v>
       </c>
       <c r="M47">
-        <v>0.323347906952716</v>
+        <v>0.000748974709501</v>
       </c>
       <c r="N47">
-        <v>1.20506934596653</v>
+        <v>0.752937538651825</v>
       </c>
       <c r="O47" t="s">
         <v>43</v>
       </c>
       <c r="P47" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q47">
         <v>1775744</v>
@@ -3882,16 +3882,19 @@
         <v>5627903</v>
       </c>
       <c r="S47" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T47" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V47" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="W47" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3899,49 +3902,49 @@
         <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" t="s">
         <v>39</v>
       </c>
       <c r="F48">
-        <v>0.237137175383665</v>
+        <v>0.0438801297279269</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0.943965517241379</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.366</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="K48">
-        <v>-0.0068915094339622</v>
+        <v>0.106894796225158</v>
       </c>
       <c r="L48">
-        <v>-0.0244191665058645</v>
+        <v>0.0057141826084509</v>
       </c>
       <c r="M48">
-        <v>0.0056493499246641</v>
+        <v>0.232170221995773</v>
       </c>
       <c r="N48">
-        <v>-1.88292607485308</v>
+        <v>1.23720828964303</v>
       </c>
       <c r="O48" t="s">
         <v>43</v>
       </c>
       <c r="P48" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="Q48">
         <v>1775744</v>
@@ -3950,16 +3953,19 @@
         <v>5627903</v>
       </c>
       <c r="S48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V48" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="W48" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:22">
@@ -3967,10 +3973,10 @@
         <v>23</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C49">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -3979,37 +3985,37 @@
         <v>39</v>
       </c>
       <c r="F49">
-        <v>0.121517480147261</v>
+        <v>0.889664319040077</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>97.75</v>
+        <v>0.36</v>
       </c>
       <c r="K49">
-        <v>-0.473121761658031</v>
+        <v>0.0252486195132865</v>
       </c>
       <c r="L49">
-        <v>-1.57791099702973</v>
+        <v>-0.0427975889090418</v>
       </c>
       <c r="M49">
-        <v>0.0907286812133191</v>
+        <v>0.0583634259028863</v>
       </c>
       <c r="N49">
-        <v>-0.484012032386733</v>
+        <v>7.01350542035736</v>
       </c>
       <c r="O49" t="s">
         <v>43</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q49">
         <v>1775744</v>
@@ -4018,16 +4024,16 @@
         <v>5627903</v>
       </c>
       <c r="S49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T49" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:22">
@@ -4035,10 +4041,10 @@
         <v>23</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -4047,7 +4053,7 @@
         <v>39</v>
       </c>
       <c r="F50">
-        <v>0.429013828493761</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4059,25 +4065,25 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>4.16</v>
+        <v>96.84</v>
       </c>
       <c r="K50">
-        <v>-0.012541871058164</v>
+        <v>0.339944571383549</v>
       </c>
       <c r="L50">
-        <v>-0.0690116954709582</v>
+        <v>-2.78088621739411</v>
       </c>
       <c r="M50">
-        <v>0.0788957317378329</v>
+        <v>3.21731105783492</v>
       </c>
       <c r="N50">
-        <v>-0.301487285052018</v>
+        <v>0.35103735169718</v>
       </c>
       <c r="O50" t="s">
         <v>43</v>
       </c>
       <c r="P50" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="Q50">
         <v>1775744</v>
@@ -4086,16 +4092,16 @@
         <v>5627903</v>
       </c>
       <c r="S50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U50" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -4103,10 +4109,10 @@
         <v>23</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C51">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -4115,7 +4121,7 @@
         <v>39</v>
       </c>
       <c r="F51">
-        <v>0.162211845260789</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4127,25 +4133,25 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.3675</v>
+        <v>4.005</v>
       </c>
       <c r="K51">
-        <v>-0.0042914490861618</v>
+        <v>0.0612192999209253</v>
       </c>
       <c r="L51">
-        <v>-0.0109627544939982</v>
+        <v>-0.528412743001854</v>
       </c>
       <c r="M51">
-        <v>0.0022838363476742</v>
+        <v>0.323347906952716</v>
       </c>
       <c r="N51">
-        <v>-1.16774124793521</v>
+        <v>1.52857178329401</v>
       </c>
       <c r="O51" t="s">
         <v>43</v>
       </c>
       <c r="P51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q51">
         <v>1775744</v>
@@ -4154,16 +4160,16 @@
         <v>5627903</v>
       </c>
       <c r="S51" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T51" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U51" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V51" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -4171,10 +4177,10 @@
         <v>23</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -4183,37 +4189,37 @@
         <v>39</v>
       </c>
       <c r="F52">
-        <v>0.056201783747841</v>
+        <v>0.570986171506239</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>0.866666666666667</v>
+        <v>1</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>98</v>
+        <v>0.366</v>
       </c>
       <c r="K52">
-        <v>-0.7164574342879561</v>
+        <v>0.0007583044982698</v>
       </c>
       <c r="L52">
-        <v>-1.07375084590453</v>
+        <v>-0.0120857502703797</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.0067983647754137</v>
       </c>
       <c r="N52">
-        <v>-0.731079014579547</v>
+        <v>0.207187021385218</v>
       </c>
       <c r="O52" t="s">
         <v>43</v>
       </c>
       <c r="P52" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="Q52">
         <v>1775744</v>
@@ -4222,16 +4228,16 @@
         <v>5627903</v>
       </c>
       <c r="S52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T52" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:22">
@@ -4239,10 +4245,10 @@
         <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C53">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D53" t="b">
         <v>0</v>
@@ -4251,37 +4257,37 @@
         <v>39</v>
       </c>
       <c r="F53">
-        <v>0.330707958503932</v>
+        <v>0.20948086257967</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>4.185</v>
+        <v>97.44499999999999</v>
       </c>
       <c r="K53">
-        <v>-0.012541871058164</v>
+        <v>-0.166610302791977</v>
       </c>
       <c r="L53">
-        <v>-0.0493513141109916</v>
+        <v>-0.837098487960101</v>
       </c>
       <c r="M53">
-        <v>0.0392249630215373</v>
+        <v>0.475907388002491</v>
       </c>
       <c r="N53">
-        <v>-0.299686285738685</v>
+        <v>-0.170978811423857</v>
       </c>
       <c r="O53" t="s">
         <v>43</v>
       </c>
       <c r="P53" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="Q53">
         <v>1775744</v>
@@ -4290,16 +4296,16 @@
         <v>5627903</v>
       </c>
       <c r="S53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V53" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="54" spans="1:22">
@@ -4307,10 +4313,10 @@
         <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D54" t="b">
         <v>0</v>
@@ -4319,55 +4325,327 @@
         <v>39</v>
       </c>
       <c r="F54">
-        <v>0.140801971162328</v>
+        <v>0.5</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>98</v>
+        <v>4.0525</v>
       </c>
       <c r="K54">
-        <v>-0.337175669346522</v>
+        <v>0.0007181478568619</v>
       </c>
       <c r="L54">
-        <v>-0.699465753159495</v>
+        <v>-0.061863998138191</v>
       </c>
       <c r="M54">
-        <v>0.09423486803529681</v>
+        <v>0.0738256245646107</v>
       </c>
       <c r="N54">
-        <v>-0.344056805455635</v>
+        <v>0.0177211068935708</v>
       </c>
       <c r="O54" t="s">
         <v>43</v>
       </c>
       <c r="P54" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q54">
+        <v>1775744</v>
+      </c>
+      <c r="R54">
+        <v>5627903</v>
+      </c>
+      <c r="S54" t="s">
+        <v>56</v>
+      </c>
+      <c r="T54" t="s">
+        <v>57</v>
+      </c>
+      <c r="U54" t="s">
+        <v>58</v>
+      </c>
+      <c r="V54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55">
+        <v>15</v>
+      </c>
+      <c r="D55" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55">
+        <v>0.214240209748998</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.372</v>
+      </c>
+      <c r="K55">
+        <v>-0.0035346774193548</v>
+      </c>
+      <c r="L55">
+        <v>-0.0098087141313398</v>
+      </c>
+      <c r="M55">
+        <v>0.0018125857423437</v>
+      </c>
+      <c r="N55">
+        <v>-0.950182101977108</v>
+      </c>
+      <c r="O55" t="s">
+        <v>43</v>
+      </c>
+      <c r="P55" t="s">
         <v>46</v>
       </c>
-      <c r="Q54">
-        <v>1775744</v>
-      </c>
-      <c r="R54">
-        <v>5627903</v>
-      </c>
-      <c r="S54" t="s">
-        <v>57</v>
-      </c>
-      <c r="T54" t="s">
-        <v>58</v>
-      </c>
-      <c r="U54" t="s">
-        <v>59</v>
-      </c>
-      <c r="V54" t="s">
-        <v>60</v>
+      <c r="Q55">
+        <v>1775744</v>
+      </c>
+      <c r="R55">
+        <v>5627903</v>
+      </c>
+      <c r="S55" t="s">
+        <v>56</v>
+      </c>
+      <c r="T55" t="s">
+        <v>57</v>
+      </c>
+      <c r="U55" t="s">
+        <v>58</v>
+      </c>
+      <c r="V55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>15</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
+      </c>
+      <c r="F56">
+        <v>0.062271140790943</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.933333333333333</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>97.5</v>
+      </c>
+      <c r="K56">
+        <v>-0.440192829165411</v>
+      </c>
+      <c r="L56">
+        <v>-1.05383243741307</v>
+      </c>
+      <c r="M56">
+        <v>0.0012640176606008</v>
+      </c>
+      <c r="N56">
+        <v>-0.451479824785037</v>
+      </c>
+      <c r="O56" t="s">
+        <v>43</v>
+      </c>
+      <c r="P56" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q56">
+        <v>1775744</v>
+      </c>
+      <c r="R56">
+        <v>5627903</v>
+      </c>
+      <c r="S56" t="s">
+        <v>56</v>
+      </c>
+      <c r="T56" t="s">
+        <v>57</v>
+      </c>
+      <c r="U56" t="s">
+        <v>58</v>
+      </c>
+      <c r="V56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57">
+        <v>15</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57">
+        <v>0.244211158311297</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>4.15</v>
+      </c>
+      <c r="K57">
+        <v>-0.012541871058164</v>
+      </c>
+      <c r="L57">
+        <v>-0.0488124228507547</v>
+      </c>
+      <c r="M57">
+        <v>0.0213590592979316</v>
+      </c>
+      <c r="N57">
+        <v>-0.302213760437686</v>
+      </c>
+      <c r="O57" t="s">
+        <v>43</v>
+      </c>
+      <c r="P57" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q57">
+        <v>1775744</v>
+      </c>
+      <c r="R57">
+        <v>5627903</v>
+      </c>
+      <c r="S57" t="s">
+        <v>56</v>
+      </c>
+      <c r="T57" t="s">
+        <v>57</v>
+      </c>
+      <c r="U57" t="s">
+        <v>58</v>
+      </c>
+      <c r="V57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" t="s">
+        <v>23</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>20</v>
+      </c>
+      <c r="D58" t="b">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>39</v>
+      </c>
+      <c r="F58">
+        <v>0.164471660910891</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.8</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>97.75</v>
+      </c>
+      <c r="K58">
+        <v>-0.270398698715086</v>
+      </c>
+      <c r="L58">
+        <v>-0.640469486607015</v>
+      </c>
+      <c r="M58">
+        <v>0.113590872896602</v>
+      </c>
+      <c r="N58">
+        <v>-0.276622709682952</v>
+      </c>
+      <c r="O58" t="s">
+        <v>43</v>
+      </c>
+      <c r="P58" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q58">
+        <v>1775744</v>
+      </c>
+      <c r="R58">
+        <v>5627903</v>
+      </c>
+      <c r="S58" t="s">
+        <v>56</v>
+      </c>
+      <c r="T58" t="s">
+        <v>57</v>
+      </c>
+      <c r="U58" t="s">
+        <v>58</v>
+      </c>
+      <c r="V58" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
